--- a/data/balance_sheet/3digits/total/613_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/613_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>613-Satellite telecommunications activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>613-Satellite telecommunications activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>1185580.00625</v>
@@ -1493,35 +943,40 @@
         <v>1349504.92223</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1485799.61287</v>
+        <v>1485936.74014</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1506864.67674</v>
+        <v>1608151.04343</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>2393042.13733</v>
+        <v>2393211.44259</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>2323438.94702</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>2686817.49277</v>
+        <v>2686911.22554</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>3067644.87973</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>3072358.7871</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>4158251.579</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
-        <v>481658.90077</v>
+        <v>481658.9007700001</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>405504.00883</v>
+        <v>405504.0088300001</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>317272.13355</v>
@@ -1533,35 +988,40 @@
         <v>215619.35145</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>182679.45304</v>
+        <v>182707.65132</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>126612.20612</v>
+        <v>129387.33487</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>430251.07078</v>
+        <v>430337.14569</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>328355.1552100001</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>409623.96539</v>
+        <v>409630.04238</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>881045.17373</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>881074.0963999998</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1024724.41</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1549.96256</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>3314.511590000001</v>
+        <v>3314.51159</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>3308.18747</v>
@@ -1573,29 +1033,34 @@
         <v>1974.33432</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>2977.41595</v>
+        <v>2980.58001</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>4125.00745</v>
+        <v>4125.732840000001</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>6426.862349999999</v>
+        <v>6431.50286</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>7779.92882</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>5333.03343</v>
+        <v>5338.4452</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>5390.300149999999</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>5417.192550000001</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>8536.190000000001</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>37781.28564</v>
@@ -1630,21 +1095,26 @@
       <c r="M8" s="22" t="n">
         <v>117128.78567</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>172650.317</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>450907.45468</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>377925.6074099999</v>
+        <v>377925.6074100001</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>329113.3565700001</v>
+        <v>329113.35657</v>
       </c>
       <c r="F9" s="21" t="n">
         <v>304099.5671</v>
@@ -1653,29 +1123,34 @@
         <v>211269.54415</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>184889.1926</v>
+        <v>184914.22682</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>151564.13749</v>
+        <v>152799.89789</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>400705.48555</v>
+        <v>400786.91995</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>313021.7996</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>376787.67946</v>
+        <v>376788.34468</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>742583.5609699999</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>742584.25024</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>872132.765</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>17023.29071</v>
@@ -1696,7 +1171,7 @@
         <v>72234.55045000001</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>90362.54766</v>
+        <v>91515.65076</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>56937.10844</v>
@@ -1710,15 +1185,20 @@
       <c r="M10" s="22" t="n">
         <v>26775.16727</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>41631.139</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
-        <v>8443.488599999997</v>
+        <v>8443.488599999999</v>
       </c>
       <c r="D11" s="22" t="n">
         <v>7524.18458</v>
@@ -1736,26 +1216,31 @@
         <v>10370.69641</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>11253.36577</v>
+        <v>13945.11183</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>19283.40094</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>50089.14247</v>
+        <v>50089.14247000001</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>43772.95572999999</v>
+        <v>43772.95573</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>42717.69421</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>42719.03521</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>13036.277</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>772.9061799999999</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>34360.66834</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>30103.192</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>396.14793</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>100.02096</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>376.75825</v>
@@ -1936,7 +1441,7 @@
         <v>143.00003</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>816.2096</v>
+        <v>816.2096000000001</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>77.14605999999999</v>
@@ -1945,17 +1450,22 @@
         <v>30752.14469</v>
       </c>
       <c r="L16" s="22" t="n">
-        <v>45.19357</v>
+        <v>45.19356999999999</v>
       </c>
       <c r="M16" s="22" t="n">
-        <v>34260.64737999999</v>
-      </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+        <v>34260.64738</v>
+      </c>
+      <c r="N16" s="22" t="n">
+        <v>30103.192</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>398234.1901</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>618716.8622100002</v>
+        <v>618716.8622099999</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>602835.47308</v>
@@ -2013,32 +1528,37 @@
         <v>622803.9349300001</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>741591.4998699999</v>
+        <v>741591.4998700001</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>700216.56135</v>
+        <v>785291.2697800001</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>866492.5937</v>
+        <v>866497.13436</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>960968.47979</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>1327744.8392</v>
+        <v>1327799.7799</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1065847.0434</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1066741.53587</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1368587.532</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>288330.08171</v>
+        <v>288330.0817100001</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>504271.07112</v>
@@ -2056,29 +1576,34 @@
         <v>524803.8316</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>447635.84429</v>
+        <v>532710.5527199999</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>573659.35409</v>
+        <v>573663.89475</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>625299.97818</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>913323.71123</v>
+        <v>913378.6519299999</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>1000683.51285</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>1001566.22532</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1210029.699</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
-        <v>4371.84403</v>
+        <v>4371.844029999999</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>2315.95257</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>14258.88164</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>8716.599</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>810.4385</v>
@@ -2216,26 +1756,31 @@
         <v>1744.33894</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>2996.15843</v>
+        <v>2996.158429999999</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>2972.19483</v>
+        <v>2972.194829999999</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>4584.857389999999</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>4591.47665</v>
+        <v>4591.476650000001</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>5380.43397</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>5392.21397</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>7471.162</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>104064.16763</v>
@@ -2268,14 +1813,19 @@
         <v>391853.20045</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>40111.62502000001</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>40111.62501999999</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>137945.004</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>71836.73247</v>
@@ -2296,7 +1846,7 @@
         <v>141777.52268</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>166585.83431</v>
+        <v>167998.86952</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>204405.47551</v>
@@ -2310,18 +1860,23 @@
       <c r="M25" s="22" t="n">
         <v>301529.92363</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>345891.023</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>71179.07423999997</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>80785.43021999999</v>
+        <v>80785.43021999998</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>103578.22082</v>
@@ -2336,7 +1891,7 @@
         <v>138685.1696</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>161819.47111</v>
+        <v>163232.50632</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>199812.41921</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>296117.33371</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>341465.955</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>50668.1223</v>
@@ -2364,7 +1924,7 @@
         <v>53035.57665</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>96801.21882999998</v>
+        <v>96801.21883</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>112365.01181</v>
@@ -2376,26 +1936,31 @@
         <v>140009.01122</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>160525.31327</v>
+        <v>172411.29127</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>301075.87838</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>77920.36715999999</v>
+        <v>77920.36715999998</v>
       </c>
       <c r="L27" s="23" t="n">
         <v>97434.92331</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>80212.75444</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>83286.84477</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>106499.499</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>3347.36942</v>
@@ -2425,17 +1990,22 @@
         <v>2609.41134</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>4411.612730000001</v>
+        <v>4411.61273</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>5727.48592</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>8785.30622</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>15492.92</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>45.76192</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>8.27619</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>2454.867</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>3251.66071</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>20961.31659</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>25047.346</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>140.69148</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>471.51437</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>374.948</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>43878.63877000001</v>
@@ -2564,7 +2149,7 @@
         <v>45852.28758999999</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>89391.88273</v>
+        <v>89391.88272999998</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>106628.27884</v>
@@ -2576,26 +2161,31 @@
         <v>138167.7439</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>156322.43886</v>
+        <v>168208.41686</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>36188.89633</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>62723.38045999999</v>
+        <v>62723.38046000001</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>71294.85626999999</v>
+        <v>71294.85627</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>53044.16137</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>53060.43140000001</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>63129.418</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>628.24365</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>1383.14263</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>1665.843</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>624.24365</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>1383.14263</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>1665.843</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>131384.88432</v>
@@ -2733,29 +2338,34 @@
         <v>242919.32168</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>260893.43074</v>
+        <v>260986.93074</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>237249.60203</v>
+        <v>237379.01394</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>535356.57776</v>
+        <v>535412.89242</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>599046.92107</v>
+        <v>599046.9210699999</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>401036.70655</v>
+        <v>401069.42163</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>352206.31532</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>352584.94696</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>530907.243</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>4685.82151</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>10001.46728</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>10955.513</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,18 +2490,23 @@
       <c r="M39" s="22" t="n">
         <v>334.55637</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>190.067</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>39720.83655</v>
       </c>
       <c r="D40" s="22" t="n">
-        <v>41836.76816</v>
+        <v>41836.76816000001</v>
       </c>
       <c r="E40" s="22" t="n">
         <v>72685.96755000002</v>
@@ -2890,7 +2515,7 @@
         <v>67520.69489</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>91195.60654000001</v>
+        <v>91195.60653999999</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>105460.96963</v>
@@ -2899,23 +2524,28 @@
         <v>102045.04811</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>87025.50485</v>
+        <v>87081.81950999999</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>147386.16559</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>115236.15913</v>
+        <v>115268.87421</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>147571.65031</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>147627.07116</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>201912.375</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>37442.84447</v>
@@ -2924,7 +2554,7 @@
         <v>31557.85855</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>44303.19261000001</v>
+        <v>44303.19261</v>
       </c>
       <c r="F41" s="21" t="n">
         <v>83621.77353000001</v>
@@ -2933,10 +2563,10 @@
         <v>38795.47456</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>49817.43938000001</v>
+        <v>49817.43938</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>75839.87677000002</v>
+        <v>75839.87677</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>108382.8145</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>147481.34491</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>125568.604</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>6400.650509999999</v>
@@ -2990,21 +2625,26 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>55936.03230000001</v>
+        <v>55936.0323</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>65269.81319000001</v>
+        <v>65269.81319</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>95081.95231000001</v>
+        <v>95081.95231000002</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>65707.73007999999</v>
@@ -3013,10 +2653,10 @@
         <v>100985.06886</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>90228.12572</v>
+        <v>90321.62572</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>47590.66799</v>
+        <v>47720.0799</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>325706.07358</v>
@@ -3028,14 +2668,19 @@
         <v>120309.70407</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>46817.29644999999</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>47140.50724</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>192234.434</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>245.30535</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>234.10435</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>11.201</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>57533.38924</v>
@@ -3213,10 +2878,10 @@
         <v>45992.01746</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>56207.16247999999</v>
+        <v>56207.16248</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>149885.50452</v>
+        <v>151140.31021</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>131536.98664</v>
@@ -3225,17 +2890,22 @@
         <v>101710.97935</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>62687.04681000001</v>
+        <v>62687.04681</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>139619.28409</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>139726.71515</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>395280.542</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>47937.58427000001</v>
@@ -3256,10 +2926,10 @@
         <v>38142.11212999999</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>54193.18046</v>
+        <v>55298.24697</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>60145.94601000001</v>
+        <v>60145.94601</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>80197.82417000001</v>
@@ -3268,14 +2938,19 @@
         <v>33148.00513999999</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>29129.29815</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>29236.72921</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>245319.146</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>9595.804969999999</v>
@@ -3296,13 +2971,13 @@
         <v>18065.05035</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>95692.32405999998</v>
+        <v>95842.06323999999</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>71391.04062999999</v>
       </c>
       <c r="K50" s="22" t="n">
-        <v>21513.15518000001</v>
+        <v>21513.15518</v>
       </c>
       <c r="L50" s="22" t="n">
         <v>29539.04167</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>110489.98594</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>149961.396</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>65082.30799</v>
@@ -3330,16 +3010,16 @@
         <v>102049.87918</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>88695.53139999999</v>
+        <v>88695.53140000001</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>103818.7537</v>
+        <v>103834.18269</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>131502.40892</v>
+        <v>131668.74283</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>125928.39974</v>
+        <v>125950.77477</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>213158.22945</v>
@@ -3348,14 +3028,19 @@
         <v>387969.84608</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>514353.6404100001</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>514583.97961</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>702149.161</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>62139.5177</v>
@@ -3370,16 +3055,16 @@
         <v>97360.89587000001</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>84972.80368000001</v>
+        <v>84972.80368</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>98328.21591000001</v>
+        <v>98339.75470999999</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>114703.36483</v>
+        <v>114772.52101</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>109123.61227</v>
+        <v>109145.9873</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>204166.81715</v>
@@ -3388,14 +3073,19 @@
         <v>377129.77101</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>505837.76042</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>505838.07034</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>695241.076</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>793.2153400000001</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>2.21125</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>2013.469</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3470,15 +3165,20 @@
       <c r="M54" s="22" t="n">
         <v>58.33949</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>89.19626999999998</v>
+        <v>89.19627</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>6141.1949</v>
@@ -3493,13 +3193,13 @@
         <v>1414.69196</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>709.46012</v>
+        <v>713.3503099999999</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>362.32162</v>
+        <v>423.8831000000001</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>901.4980700000001</v>
+        <v>901.49807</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>2143.52937</v>
@@ -3508,14 +3208,19 @@
         <v>2967.45272</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>2988.4934</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>3218.52268</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1652.055</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1138.06946</v>
@@ -3536,7 +3241,7 @@
         <v>3039.87927</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>3024.50268</v>
+        <v>3024.6545</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>3355.04635</v>
@@ -3545,17 +3250,22 @@
         <v>3898.28597</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>4757.03695</v>
+        <v>4757.036950000001</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>4347.6155</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>1557.818</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>823.14638</v>
@@ -3570,13 +3280,13 @@
         <v>1079.24554</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>739.2203099999999</v>
+        <v>739.22031</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>984.55903</v>
+        <v>984.5590299999999</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>1089.49457</v>
+        <v>1090.18158</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>102.9941</v>
@@ -3585,17 +3295,22 @@
         <v>238.61463</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>402.3033600000001</v>
+        <v>402.30336</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>185.8938</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>389.204</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>8.280530000000001</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>3.502</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>7.004</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>90.88231</v>
@@ -3656,7 +3376,7 @@
         <v>535.87886</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>636.91435</v>
+        <v>671.69177</v>
       </c>
       <c r="J59" s="21" t="n">
         <v>2032.62556</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>929.82455</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>1217.935</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>1472368.97591</v>
@@ -3729,16 +3459,16 @@
         <v>2772005.69933</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>2867763.232280001</v>
+        <v>2867763.23228</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>2759385.36301</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>2849850.19274</v>
+        <v>2857117.1428</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>2843604.98946</v>
+        <v>2844414.44325</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>3485428.537</v>
@@ -3747,14 +3477,19 @@
         <v>4351414.798</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>5531132.689710001</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>5531338.078310001</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>7738401.014</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>584.72274</v>
@@ -3769,7 +3504,7 @@
         <v>632.81173</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>818.9719700000001</v>
+        <v>818.9719699999999</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>1787.423</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>3665.98004</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>4373.479</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>144.31472</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>181.68556</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>181.686</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>2154.3949</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>2084.621</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>440.40802</v>
@@ -3966,19 +3726,19 @@
         <v>453.8084</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>489.3261799999999</v>
+        <v>489.32618</v>
       </c>
       <c r="G67" s="22" t="n">
         <v>481.4864200000001</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>948.47043</v>
+        <v>948.4704300000001</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>810.56012</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>629.9508099999999</v>
+        <v>629.95081</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>619.5957</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>1329.89958</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>2107.172</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>228275.07905</v>
@@ -4058,7 +3828,7 @@
         <v>628.71411</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>10096.70979</v>
+        <v>10663.53198</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>13842.60216</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>28122.91658</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>15675.263</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>356.11849</v>
@@ -4098,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="21" t="n">
-        <v>117.17183</v>
+        <v>683.99402</v>
       </c>
       <c r="K70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>430.827</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>225902.87323</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>26840.44053</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>14412.044</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>1133.5534</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>882.5339299999999</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>1282.47605</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>832.3920000000001</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,24 +4154,29 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>415483.19416</v>
       </c>
       <c r="D77" s="23" t="n">
-        <v>416743.18056</v>
+        <v>416743.1805599999</v>
       </c>
       <c r="E77" s="23" t="n">
         <v>767657.7581600001</v>
       </c>
       <c r="F77" s="33" t="n">
-        <v>795796.7400700001</v>
+        <v>795796.7400699999</v>
       </c>
       <c r="G77" s="23" t="n">
         <v>636110.1907799999</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>1248525.94565</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>1642603.333</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>29479.90324</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>9736.97622</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>9628.939</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>6236.23369</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>2437</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>9637</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>130.6225</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>4323.776</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>393024.25786</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>1236351.96943</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>1627661.17</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>13131.87421</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>5.29608</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>750383.8332999999</v>
+        <v>750383.8333000001</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>832673.99401</v>
@@ -4815,26 +4680,31 @@
         <v>2054453.78181</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>2164170.15046</v>
+        <v>2171350.09666</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>2044568.1506</v>
+        <v>2044803.48164</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>2183578.09259</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>2962396.72612</v>
+        <v>2962396.726119999</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>3836984.68479</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>3837071.646879999</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>5100679.127</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1210.9313</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>14069.43136</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>17850.943</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>2040.28885</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>4260.7474</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>7896.995</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>8384.496300000001</v>
@@ -4938,10 +4818,10 @@
         <v>49109.48615</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>56996.28206999999</v>
+        <v>56996.28207</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>60014.21451</v>
+        <v>60014.21451000001</v>
       </c>
       <c r="L91" s="22" t="n">
         <v>41459.07508</v>
@@ -4949,12 +4829,17 @@
       <c r="M91" s="22" t="n">
         <v>38974.87508</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>33855.043</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1397096.80552</v>
@@ -4975,7 +4860,7 @@
         <v>2529690.02218</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>2654876.41395</v>
+        <v>2709285.370790001</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>3448809.21995</v>
@@ -4989,12 +4874,17 @@
       <c r="M92" s="22" t="n">
         <v>4310369.51876</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>4534780.046</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>7684.70658</v>
@@ -5018,7 +4908,7 @@
         <v>14065.67038</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>12986.87285</v>
+        <v>13211.51581</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>11909.29603</v>
@@ -5027,20 +4917,25 @@
         <v>13130.13474</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>13527.00879</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>13597.41544</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>13389.515</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>50637.12897</v>
+        <v>50637.12897000001</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>56644.10086000001</v>
+        <v>56644.10086</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>133215.58163</v>
@@ -5055,26 +4950,31 @@
         <v>250400.61678</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>267096.584</v>
+        <v>267098.70155</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>281830.63964</v>
+        <v>281849.47992</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>291461.82114</v>
+        <v>291461.8211400001</v>
       </c>
       <c r="L94" s="22" t="n">
         <v>300309.44875</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>315704.15182</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>315860.82703</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>592853.383</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2983.51814</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>7616.00102</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>7888.195</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>796977.3696399999</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>824632.7412500001</v>
+        <v>824632.74125</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>878661.90096</v>
@@ -5135,10 +5040,10 @@
         <v>1388717.39197</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>1585727.04155</v>
+        <v>1632958.16974</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>1947499.90192</v>
+        <v>1947508.05412</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>2196136.4703</v>
@@ -5147,14 +5052,19 @@
         <v>2462795.90551</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>2763811.88942</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>2763952.00919</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>3058629.17</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>75644.36720000001</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>1894901.37313</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>2949224.521</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1678.96008</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>1373.46685</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1569.656</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>60256.59105</v>
@@ -5255,10 +5175,10 @@
         <v>116137.54301</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>100183.64198</v>
+        <v>100191.30786</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>100495.20054</v>
+        <v>100502.5011</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>222164.05711</v>
@@ -5267,20 +5187,25 @@
         <v>254731.30782</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>226768.60505</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>226769.77585</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>329237.237</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>74292.22893</v>
       </c>
       <c r="D100" s="22" t="n">
-        <v>93524.11622000001</v>
+        <v>93524.11622</v>
       </c>
       <c r="E100" s="22" t="n">
         <v>112459.38245</v>
@@ -5295,26 +5220,31 @@
         <v>206013.46849</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>244583.01505</v>
+        <v>244800.02065</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>309952.5352</v>
+        <v>309953.0863700001</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>488599.8508200001</v>
+        <v>488599.85082</v>
       </c>
       <c r="L100" s="22" t="n">
         <v>574070.8856800001</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>665793.9247600001</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>665793.92476</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>1445293.409</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>982.20858</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>44530.17286</v>
@@ -5384,17 +5319,22 @@
         <v>5950.71914</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>5937.36438</v>
+        <v>5937.364380000001</v>
       </c>
       <c r="M102" s="22" t="n">
         <v>5949.029280000001</v>
       </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+      <c r="N102" s="22" t="n">
+        <v>4251.443</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>9871.1003</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>152935.37602</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>224586.802</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>10004.6738</v>
@@ -5446,7 +5391,7 @@
         <v>23140.63737</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>24162.24216000001</v>
+        <v>24162.24216</v>
       </c>
       <c r="G104" s="22" t="n">
         <v>27405.90023</v>
@@ -5455,10 +5400,10 @@
         <v>29765.25367</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>32719.15446000001</v>
+        <v>32778.70938</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>35720.57354999999</v>
+        <v>35728.4789</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>38032.07825</v>
@@ -5467,14 +5412,19 @@
         <v>37428.5461</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>35107.3974</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>35109.43455000001</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>39022.931</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>77760.91248</v>
@@ -5495,7 +5445,7 @@
         <v>172018.02576</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>173467.85719</v>
+        <v>173855.69579</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>189138.55938</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>310534.92842</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>394794.9</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>157184.7059</v>
@@ -5535,26 +5490,31 @@
         <v>374215.48748</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>443501.8754899999</v>
+        <v>444158.60873</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>552912.10408</v>
+        <v>552913.2600400001</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>666191.0897199999</v>
+        <v>666191.08972</v>
       </c>
       <c r="L106" s="22" t="n">
         <v>801819.1586</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>943560.12283</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>943560.9891799999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>1778722.04</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>8.071999999999999</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>8.071999999999999</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>1324</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>115.2</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>59398.31429</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>162328.43723</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>333090.087</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>58074.31429</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>162213.23723</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>333061.287</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>15044.43884</v>
@@ -5855,7 +5850,7 @@
         <v>7989.8117</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>13143.83414</v>
+        <v>13223.17212</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>7594.42268</v>
@@ -5867,14 +5862,19 @@
         <v>65663.4621</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>183498.95233</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>183616.20804</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>642547.2610000001</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>15042.53443</v>
@@ -5895,7 +5895,7 @@
         <v>7989.8117</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>13143.83414</v>
+        <v>13223.17212</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>7594.42268</v>
@@ -5907,14 +5907,19 @@
         <v>65658.93902999999</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>183498.95233</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>183616.20804</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>225865.246</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>1.90441</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>416682.015</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>1017.11677</v>
@@ -5978,10 +5988,10 @@
         <v>313.79832</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>3171.594180000001</v>
+        <v>3171.59418</v>
       </c>
       <c r="K117" s="23" t="n">
-        <v>2828.969729999999</v>
+        <v>2828.96973</v>
       </c>
       <c r="L117" s="23" t="n">
         <v>3903.35171</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>3450.40527</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>3256.514</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>10.39486</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>18.89486</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>18.895</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>2863.22911</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>1006.72191</v>
@@ -6224,17 +6264,22 @@
         <v>1686.58676</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>539.93342</v>
+        <v>539.9334200000001</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>540.86036</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>352.305</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6338,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="21" t="n">
-        <v>742.5103300000001</v>
+        <v>742.51033</v>
       </c>
       <c r="K126" s="22" t="n">
         <v>1131.86828</v>
@@ -6349,18 +6404,23 @@
       <c r="M126" s="22" t="n">
         <v>27.42094</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>2885.314</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>2657948.98216</v>
+        <v>2657948.982159999</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>2957178.277499999</v>
+        <v>2957178.2775</v>
       </c>
       <c r="E127" s="23" t="n">
         <v>3721926.90543</v>
@@ -6369,29 +6429,32 @@
         <v>4194904.66877</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>4217268.15451</v>
+        <v>4217268.154510001</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>4245184.97588</v>
+        <v>4245322.10315</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>4356714.86948</v>
+        <v>4465268.186229999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>5236647.12679</v>
+        <v>5237625.885840001</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>5808867.48402</v>
+        <v>5808867.484019999</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>7038232.29077</v>
+        <v>7038326.023539999</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>8598777.56944</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>8603696.86541</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>11896652.593</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>613-Satellite telecommunications activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>564117.4522599999</v>
@@ -6504,32 +6581,37 @@
         <v>1110884.98475</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>1514045.90701</v>
+        <v>1514150.0453</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>2054801.6175</v>
+        <v>2128778.26771</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>3525332.96839</v>
+        <v>3525371.03097</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>2644515.52761</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>2637503.728649999</v>
+        <v>2637572.50142</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>2666271.27115</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>2669966.631020001</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>4066862.376</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
-        <v>47402.26318</v>
+        <v>47402.26317999999</v>
       </c>
       <c r="D133" s="23" t="n">
         <v>60019.82307</v>
@@ -6550,7 +6632,7 @@
         <v>1073201.10213</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>407908.97385</v>
+        <v>407926.6283400001</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>492005.05226</v>
@@ -6559,14 +6641,19 @@
         <v>115344.39466</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>48526.69624</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>48528.43648</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>315835.551</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>13660.54413</v>
@@ -6590,7 +6677,7 @@
         <v>531273.97234</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>396782.28822</v>
+        <v>396789.0163300001</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>457009.17139</v>
@@ -6599,14 +6686,19 @@
         <v>102092.32592</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>33737.88626</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>33737.88627</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>43380.576</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>211.44653</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>30.09619</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>33549.0021</v>
@@ -6695,7 +6797,7 @@
         <v>19215.30514</v>
       </c>
       <c r="E137" s="22" t="n">
-        <v>2634.933849999999</v>
+        <v>2634.93385</v>
       </c>
       <c r="F137" s="21" t="n">
         <v>2669.35741</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>13136.47563</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>271634.648</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>11.36661</v>
@@ -6910,7 +7037,7 @@
         <v>3386.2271</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>3988.15398</v>
+        <v>3999.08036</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>2353.56986</v>
@@ -6919,14 +7046,19 @@
         <v>2475.07557</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>1652.33435</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1654.07458</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>820.327</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>278696.48065</v>
@@ -6935,38 +7067,43 @@
         <v>383712.76319</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>595382.3013999999</v>
+        <v>595382.3014</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>691439.10514</v>
+        <v>691439.1051400001</v>
       </c>
       <c r="G143" s="46" t="n">
         <v>643188.7020299999</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>742115.4929099999</v>
+        <v>742219.18732</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>635064.53839</v>
+        <v>704448.0404500001</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>661796.4273199999</v>
+        <v>661804.97933</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>881266.72335</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>1999453.8626</v>
+        <v>1999515.3626</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>1309699.2227</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>1310356.08427</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>2340418.775</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>223799.78889</v>
@@ -6975,38 +7112,43 @@
         <v>357149.43576</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>551147.2227399999</v>
+        <v>551147.22274</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>646788.9875200001</v>
+        <v>646788.98752</v>
       </c>
       <c r="G144" s="25" t="n">
         <v>618611.50427</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>713268.0018799999</v>
+        <v>713371.6962900001</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>603745.88447</v>
+        <v>673129.38653</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>621395.5729800001</v>
+        <v>621395.5729800002</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>829614.6460300001</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>1845339.85427</v>
+        <v>1845401.35427</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>1183382.63689</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>1184039.49846</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>2264710.086</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>51290.95251</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>86216.13858</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>31207.22</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,18 +7228,23 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>2729.80625</v>
       </c>
       <c r="D147" s="25" t="n">
-        <v>3233.152410000001</v>
+        <v>3233.15241</v>
       </c>
       <c r="E147" s="25" t="n">
         <v>5157.064240000001</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>37561.51755</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>41656.853</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>875.933</v>
@@ -7150,7 +7307,7 @@
         <v>2489.85025</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>2556.26074</v>
+        <v>2564.81275</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>3667.67362</v>
@@ -7161,12 +7318,17 @@
       <c r="M148" s="25" t="n">
         <v>2538.92968</v>
       </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+      <c r="N148" s="25" t="n">
+        <v>2844.616</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>72285.72205</v>
@@ -7187,26 +7349,31 @@
         <v>38538.68634</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>57721.3106</v>
+        <v>58158.07846</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>2040678.5945</v>
+        <v>2040683.77371</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>710809.6160500001</v>
+        <v>710809.61605</v>
       </c>
       <c r="L149" s="23" t="n">
         <v>116738.42559</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>713913.31765</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>714156.61465</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>841661.317</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>13109.75649</v>
@@ -7218,7 +7385,7 @@
         <v>11506.57188</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>8766.881130000002</v>
+        <v>8766.88113</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>12090.96924</v>
@@ -7227,7 +7394,7 @@
         <v>17966.48681</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>25349.26823</v>
+        <v>25397.34374</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>2005493.16608</v>
@@ -7239,14 +7406,19 @@
         <v>48210.12579</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>675766.5107700001</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>675932.0198000001</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>806908.202</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>1.14066</v>
@@ -7321,15 +7498,20 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
-        <v>949.7354300000001</v>
+        <v>949.73543</v>
       </c>
       <c r="D153" s="22" t="n">
         <v>1550.89883</v>
@@ -7347,26 +7529,31 @@
         <v>2564.82595</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>3322.87942</v>
+        <v>3323.01867</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>4340.31877</v>
+        <v>4345.49798</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>5095.613600000001</v>
+        <v>5095.6136</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>4911.759529999999</v>
+        <v>4911.75953</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>6182.03825</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>6259.826220000001</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>3296.078</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>58225.08947</v>
@@ -7387,13 +7574,13 @@
         <v>17742.53052</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>29049.16294999999</v>
+        <v>29437.71605</v>
       </c>
       <c r="J154" s="21" t="n">
         <v>30538.80943</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>75335.19278999999</v>
+        <v>75335.19279</v>
       </c>
       <c r="L154" s="22" t="n">
         <v>63616.54027</v>
@@ -7401,12 +7588,17 @@
       <c r="M154" s="22" t="n">
         <v>31964.76863</v>
       </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+      <c r="N154" s="22" t="n">
+        <v>31457.037</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>57236.90425000001</v>
+        <v>57236.90425</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>53139.43545</v>
@@ -7458,10 +7655,10 @@
         <v>65695.09156</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>71667.12228999998</v>
+        <v>71667.12229</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>86756.72987</v>
+        <v>86756.72987000001</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>82540.02615999999</v>
@@ -7476,29 +7673,34 @@
         <v>122785.73089</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>78815.29354000001</v>
+        <v>78815.29354</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>92105.01792</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>92105.01797999999</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>42465.259</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>56940.62584</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>53108.08965</v>
+        <v>53108.08965000001</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>65112.23708000001</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>71019.69224</v>
+        <v>71019.69223999999</v>
       </c>
       <c r="G157" s="22" t="n">
         <v>86167.87474</v>
@@ -7516,17 +7718,22 @@
         <v>121899.27308</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>77994.25559999999</v>
+        <v>77994.2556</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>91336.79207</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>91336.79213</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>41697.105</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>296.27841</v>
@@ -7535,13 +7742,13 @@
         <v>31.3458</v>
       </c>
       <c r="E158" s="22" t="n">
-        <v>582.8544800000001</v>
+        <v>582.85448</v>
       </c>
       <c r="F158" s="21" t="n">
         <v>647.4300499999999</v>
       </c>
       <c r="G158" s="22" t="n">
-        <v>588.8551300000001</v>
+        <v>588.85513</v>
       </c>
       <c r="H158" s="21" t="n">
         <v>721.66614</v>
@@ -7553,7 +7760,7 @@
         <v>679.48984</v>
       </c>
       <c r="K158" s="22" t="n">
-        <v>886.45781</v>
+        <v>886.4578100000001</v>
       </c>
       <c r="L158" s="22" t="n">
         <v>821.03794</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>768.22585</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>768.154</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>13151.13351</v>
@@ -7698,35 +7925,40 @@
         <v>24626.55766</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>34654.95702</v>
+        <v>34654.95701999999</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>35142.01012</v>
+        <v>35142.01012000001</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>40273.41772999999</v>
+        <v>40273.86161</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>42953.34245</v>
+        <v>44677.19177</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>68812.25575</v>
+        <v>68818.93262000001</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>83253.64456999999</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>147162.45034</v>
+        <v>147162.68311</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>83337.39233</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>85900.1599</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>118264.298</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>10250.77369</v>
@@ -7744,29 +7976,34 @@
         <v>28724.71438</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>31443.75148</v>
+        <v>31444.19536</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>30623.9068</v>
+        <v>32312.02807</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>47575.40886</v>
+        <v>47578.19506000001</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>56516.12927</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>123861.80321</v>
+        <v>123862.03598</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>59234.93318</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>60897.11609</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>88300.103</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2667.18148</v>
@@ -7787,10 +8024,10 @@
         <v>6732.288070000001</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>7613.05194</v>
+        <v>7648.77999</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>9704.903629999999</v>
+        <v>9708.7943</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>14353.76528</v>
@@ -7799,14 +8036,19 @@
         <v>10912.26397</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>12829.09301</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>13309.02041</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>16511.209</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>190.51141</v>
@@ -7839,14 +8081,19 @@
         <v>10610.66953</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>9199.997509999999</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>9620.654769999999</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>10724.576</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>42.66693</v>
@@ -7864,7 +8111,7 @@
         <v>209.04116</v>
       </c>
       <c r="H166" s="21" t="n">
-        <v>660.7893700000001</v>
+        <v>660.78937</v>
       </c>
       <c r="I166" s="22" t="n">
         <v>1144.6926</v>
@@ -7881,12 +8128,17 @@
       <c r="M166" s="22" t="n">
         <v>2073.36863</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>2728.41</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>15248.6694</v>
@@ -7916,17 +8168,22 @@
         <v>56361.26582</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>72329.25436000001</v>
+        <v>72336.29436</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>81443.73269</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>81674.42611999999</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>117745.318</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>41481.82704</v>
@@ -7935,7 +8192,7 @@
         <v>28688.46823</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>24840.88214000001</v>
+        <v>24840.88214</v>
       </c>
       <c r="F168" s="21" t="n">
         <v>40128.39899</v>
@@ -7953,20 +8210,25 @@
         <v>35626.00047</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>59706.19938</v>
+        <v>59706.19938000001</v>
       </c>
       <c r="L168" s="22" t="n">
         <v>111637.44608</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>112324.9854</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>112584.71174</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>165064.339</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>26846.11663</v>
@@ -7975,7 +8237,7 @@
         <v>22126.198</v>
       </c>
       <c r="E169" s="22" t="n">
-        <v>24349.14553</v>
+        <v>24349.14553000001</v>
       </c>
       <c r="F169" s="21" t="n">
         <v>18585.4476</v>
@@ -7987,7 +8249,7 @@
         <v>8527.98984</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>39995.74039</v>
+        <v>39995.74038999999</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>19794.99351</v>
@@ -7996,17 +8258,22 @@
         <v>30762.78683</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>82644.01847999998</v>
+        <v>82636.97847999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>74412.67108999999</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>74441.704</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>132595.693</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>6388.48265</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>7068.347</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>575.84567</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>24521.66615</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>73353.261</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>37.11332</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>12621.26958</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>4855.064</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>79413.39751000001</v>
@@ -8147,7 +8429,7 @@
         <v>164450.58872</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>181473.00166</v>
+        <v>183054.54206</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>196400.14554</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>336917.8473</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>290090.76</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>56707.36884</v>
@@ -8187,7 +8474,7 @@
         <v>145150.23222</v>
       </c>
       <c r="I174" s="22" t="n">
-        <v>153664.52255</v>
+        <v>155246.06295</v>
       </c>
       <c r="J174" s="21" t="n">
         <v>172405.94166</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>132855.39079</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>109962.835</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>22706.02867</v>
@@ -8233,20 +8525,25 @@
         <v>23994.20388</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>32496.94662000001</v>
+        <v>32496.94662</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>94089.95404999999</v>
+        <v>94089.95405</v>
       </c>
       <c r="M175" s="22" t="n">
         <v>204062.45651</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>180127.925</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>682.8817100000001</v>
@@ -8255,7 +8552,7 @@
         <v>696.17135</v>
       </c>
       <c r="E176" s="23" t="n">
-        <v>668.88383</v>
+        <v>668.8838300000001</v>
       </c>
       <c r="F176" s="33" t="n">
         <v>0.54504</v>
@@ -8267,7 +8564,7 @@
         <v>127.8997</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>237.32963</v>
+        <v>1088.3202</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>204.86342</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>328.04432</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>381.098</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0.40284</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>0.20934</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.02207</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>3.5995</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>678.8573</v>
@@ -8467,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="35" t="n">
-        <v>0.08942</v>
+        <v>851.07999</v>
       </c>
       <c r="J181" s="34" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>327.83498</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>381.098</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>54290.49932000001</v>
@@ -8507,26 +8834,31 @@
         <v>607777.75925</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>165217.63214</v>
+        <v>165217.65597</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>415875.13073</v>
+        <v>415964.21222</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>407896.06802</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>1187750.60385</v>
+        <v>1187750.60386</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>2412089.15643</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>2412350.34534</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>3716116.898</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>21275.37251</v>
@@ -8550,23 +8882,28 @@
         <v>73046.08347</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>308789.6797500001</v>
+        <v>308878.76124</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>295066.8460899999</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>343141.39827</v>
+        <v>343141.3982700001</v>
       </c>
       <c r="M183" s="23" t="n">
         <v>1526384.51964</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>2533849.219</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>18225.60537</v>
@@ -8590,23 +8927,28 @@
         <v>68632.72714</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>308789.6797500001</v>
+        <v>308878.76124</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>295066.8460899999</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>341409.91602</v>
+        <v>341409.9160200001</v>
       </c>
       <c r="M184" s="22" t="n">
         <v>1524831.24787</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>2533163.748</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2868.231690000001</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>174.69564</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>356.2310900000001</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>1553.27177</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>685.471</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>32422.27062</v>
@@ -8864,10 +9236,10 @@
         <v>3903.80948</v>
       </c>
       <c r="H191" s="33" t="n">
-        <v>4393.633180000001</v>
+        <v>4393.63318</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>4441.14202</v>
+        <v>4441.142019999999</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>5452.64913</v>
@@ -8876,17 +9248,22 @@
         <v>8332.992460000001</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>3651.650979999999</v>
+        <v>3651.65098</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>8253.675289999999</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>11688.915</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>19345.65101</v>
@@ -8901,7 +9278,7 @@
         <v>13.15</v>
       </c>
       <c r="G192" s="22" t="n">
-        <v>961.0964</v>
+        <v>961.0963999999999</v>
       </c>
       <c r="H192" s="21" t="n">
         <v>1410.82997</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1033.8</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>1066.056</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>12635</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>5823.03272</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>9480.728999999999</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,24 +9388,29 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>441.61961</v>
       </c>
       <c r="D195" s="22" t="n">
-        <v>780.57226</v>
+        <v>780.5722599999999</v>
       </c>
       <c r="E195" s="22" t="n">
         <v>6441.30713</v>
       </c>
       <c r="F195" s="21" t="n">
-        <v>710.2337199999999</v>
+        <v>710.2337200000001</v>
       </c>
       <c r="G195" s="22" t="n">
         <v>1201.28696</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>1396.84257</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>1142.13</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>430.0928</v>
@@ -9095,7 +9497,7 @@
         <v>4993.6039</v>
       </c>
       <c r="E197" s="23" t="n">
-        <v>7458.945930000001</v>
+        <v>7458.94593</v>
       </c>
       <c r="F197" s="33" t="n">
         <v>16568.07504</v>
@@ -9104,29 +9506,34 @@
         <v>7589.97267</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>7715.994860000001</v>
+        <v>7715.99486</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>44164.81565</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>55832.35474000001</v>
+        <v>55832.35474</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>53408.43842</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>102988.99582</v>
+        <v>102988.99583</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>116085.54291</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>116283.50043</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>141066.693</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>75</v>
@@ -9156,17 +9563,22 @@
         <v>1695.96233</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>2990.2609</v>
+        <v>2990.26091</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>4129.80014</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>4327.75766</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>3325.261</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>106923.6</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>132129</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>355.0928</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>4809.28231</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>5393.176</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>222.86046</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>219.256</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>91.02508</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>456340.64205</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>563894.077</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>91.02508</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>456340.64205</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>563894.077</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>48621.34456000001</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>68949.36900000001</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>48621.34456000001</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>68949.36900000001</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>71.73831</v>
@@ -9627,7 +10094,7 @@
         <v>1850.67795</v>
       </c>
       <c r="I210" s="23" t="n">
-        <v>3099.83181</v>
+        <v>3099.85564</v>
       </c>
       <c r="J210" s="33" t="n">
         <v>2572.8575</v>
@@ -9639,14 +10106,19 @@
         <v>294276.45277</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>256403.43198</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>256466.66337</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>396668.582</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>71.56417</v>
@@ -9667,7 +10139,7 @@
         <v>1602.71652</v>
       </c>
       <c r="I211" s="22" t="n">
-        <v>3092.87312</v>
+        <v>3092.89695</v>
       </c>
       <c r="J211" s="21" t="n">
         <v>2506.90126</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>256403.12352</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>396605.351</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.17414</v>
@@ -9719,14 +10196,19 @@
         <v>78.77637</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>0.30846</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>63.53985</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>63.231</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>2039541.03058</v>
@@ -9898,35 +10400,40 @@
         <v>2300347.35204</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>2372408.350829999</v>
+        <v>2372408.35083</v>
       </c>
       <c r="G217" s="23" t="n">
         <v>2205507.51508</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>2123361.30962</v>
+        <v>2123394.2986</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>2136695.61984</v>
+        <v>2171272.26255</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>1295439.02767</v>
+        <v>1296290.64265</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>2756455.88839</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>3212977.95827</v>
+        <v>3213002.91826</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>3520417.14186</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>3521379.88905</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>4113673.319</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>2013365.98111</v>
@@ -9944,13 +10451,13 @@
         <v>2003852.20153</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>2358539.93613</v>
+        <v>2358639.93613</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>2319691.58479</v>
+        <v>2359791.58479</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>2742644.42208</v>
+        <v>2743644.42208</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>4794442.25138</v>
@@ -9959,14 +10466,19 @@
         <v>5530892.78933</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>7811744.96418</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>7811829.07184</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>8950935.446</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>1871077.395</v>
@@ -9984,29 +10496,34 @@
         <v>1874442.76238</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>2221968.72138</v>
+        <v>2222068.72138</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>2186033.96642</v>
+        <v>2226133.96642</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>2606408.53334</v>
+        <v>2607408.53334</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>4869240.13892</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>5608278.877</v>
+        <v>5609278.877</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>7911965.036</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>7913142.036</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>8828764.036</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>30245.43125</v>
@@ -10036,17 +10553,22 @@
         <v>214000.0333</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>216648.40971</v>
+        <v>217648.40971</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>239480.2862</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>240575.2862</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>17111.427</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>172534.01736</v>
@@ -10079,14 +10601,19 @@
         <v>139262.32204</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>139260.21438</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>139262.32204</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>139282.837</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>40957.89909</v>
@@ -10141,7 +10673,7 @@
         <v>5386.342360000001</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>5414.795649999999</v>
+        <v>5414.79565</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>4648.17867</v>
@@ -10150,10 +10682,10 @@
         <v>5763.97987</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>44244.30811000001</v>
+        <v>44244.30811</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>5034.6805</v>
+        <v>5034.680500000001</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>5522.60079</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>3734.70703</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>3888.939</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>8.33841</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>55.05845</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>449.893</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>2115.66857</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>1720.834</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>40949.56068</v>
@@ -10415,10 +10982,10 @@
         <v>52595.44599</v>
       </c>
       <c r="E230" s="22" t="n">
-        <v>41912.04884999999</v>
+        <v>41912.04885</v>
       </c>
       <c r="F230" s="21" t="n">
-        <v>5261.39704</v>
+        <v>5261.397040000001</v>
       </c>
       <c r="G230" s="22" t="n">
         <v>5361.61544</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>1563.98001</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>1718.212</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>198860.98393</v>
@@ -10467,7 +11039,7 @@
         <v>63022.35114</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>66188.9068</v>
+        <v>68328.38024</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>132166.14383</v>
@@ -10479,26 +11051,31 @@
         <v>154296.1481</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>179129.86746</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>179134.62693</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>182010.427</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>31780.9926</v>
       </c>
       <c r="D232" s="22" t="n">
-        <v>44273.35303999999</v>
+        <v>44273.35304000001</v>
       </c>
       <c r="E232" s="22" t="n">
         <v>48963.3217</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>55712.6268</v>
+        <v>55712.62680000001</v>
       </c>
       <c r="G232" s="22" t="n">
         <v>63062.45859</v>
@@ -10507,26 +11084,31 @@
         <v>57312.11252</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>59240.58048</v>
+        <v>61380.05392</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>75546.31318000001</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>83857.05355</v>
+        <v>83857.05355000001</v>
       </c>
       <c r="L232" s="22" t="n">
         <v>95418.89004000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>119638.21826</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>119642.97773</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>119722.729</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>124.33107</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>93.998</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>164022.44625</v>
@@ -10593,20 +11180,25 @@
         <v>53748.77294</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>53772.67336000001</v>
+        <v>53772.67336</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>53806.65951</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>53826.72384</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>53826.72384000001</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>55614.811</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2933.21401</v>
@@ -10679,17 +11276,22 @@
         <v>5070.59855</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>5664.925359999999</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>5664.92536</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>6578.889</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>6893.24996</v>
+        <v>6893.249959999999</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>11259.28004</v>
@@ -10707,26 +11309,31 @@
         <v>247722.34565</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>298284.94269</v>
+        <v>310406.97171</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>43465.81783</v>
+        <v>43465.81784</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>47334.75018</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>334725.33957</v>
+        <v>334921.48387</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>60032.774</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>60590.84597</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>65235.261</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-264255.37226</v>
@@ -10744,10 +11351,10 @@
         <v>-249024.11084</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-458340.92576</v>
+        <v>-458352.45754</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-360195.00816</v>
+        <v>-364026.64314</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-739434.28123</v>
@@ -10756,17 +11363,22 @@
         <v>-1438589.17054</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-970171.8956500001</v>
+        <v>-970178.9356500001</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-2923462.764479999</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-2923787.86988</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-4494164.895</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>43718.28875</v>
@@ -10775,7 +11387,7 @@
         <v>45811.69304</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-89269.77782</v>
+        <v>-89269.77781999999</v>
       </c>
       <c r="F239" s="33" t="n">
         <v>28165.63347</v>
@@ -10784,29 +11396,34 @@
         <v>-202541.86634</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-92230.57621</v>
+        <v>-92286.05545</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-193038.78615</v>
+        <v>-208992.01092</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-927647.3829499999</v>
+        <v>-927795.76798</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>-793734.63716</v>
+        <v>-793734.6371599999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-1842287.02387</v>
+        <v>-1842451.16818</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-1610762.40633</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-1610121.49284</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-594231.8590000001</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>199466.07096</v>
@@ -10836,17 +11453,22 @@
         <v>243197.1983</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>389775.2725</v>
+        <v>389807.27249</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>6115.411810000001</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>6832.78763</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>564590.723</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>155747.78221</v>
@@ -10864,29 +11486,34 @@
         <v>370472.18208</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>173745.49149</v>
+        <v>173800.97073</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>376440.49246</v>
+        <v>392393.71723</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>1064481.41569</v>
+        <v>1064629.80072</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>1036931.83546</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>2232062.29637</v>
+        <v>2232258.44067</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>1616877.81814</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>1616954.28047</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>1158822.582</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>2657948.98216</v>
@@ -10904,26 +11531,29 @@
         <v>4217268.15451</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>4245184.97588</v>
+        <v>4245322.103150001</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>4356714.86948</v>
+        <v>4465268.18623</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>5236647.126789999</v>
+        <v>5237625.885840001</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>5808867.484020001</v>
+        <v>5808867.48402</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>7038232.290769999</v>
+        <v>7038326.023540001</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>8598777.56944</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>8603696.86541</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>11896652.593</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>73</v>
@@ -10960,26 +11593,29 @@
         <v>112</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>128</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>107</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>113</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>114</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>